--- a/GHealthProject/Progress.xlsx
+++ b/GHealthProject/Progress.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aj_pa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labratoryCode\GHealthProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -194,41 +194,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -243,11 +249,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,22 +572,22 @@
   <dimension ref="B4:L1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B35" sqref="B35:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1"/>
+    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -594,7 +601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
@@ -602,7 +609,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +640,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,12 +713,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="J13" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
@@ -719,7 +726,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -742,7 +749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -756,7 +763,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -770,12 +777,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="J18" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
@@ -783,7 +790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -803,7 +810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
@@ -814,7 +821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
@@ -825,12 +832,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="J23" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J24" s="1" t="s">
         <v>49</v>
       </c>
@@ -838,7 +845,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J25" s="1" t="s">
         <v>48</v>
       </c>
@@ -846,7 +853,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J26" s="1" t="s">
         <v>50</v>
       </c>
@@ -854,7 +861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
@@ -871,7 +878,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
@@ -882,7 +889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
@@ -893,18 +900,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
@@ -915,29 +922,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1048576" s="1" t="s">
         <v>10</v>
       </c>

--- a/GHealthProject/Progress.xlsx
+++ b/GHealthProject/Progress.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labratoryCode\GHealthProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aj_pa\Repositories\labratoryCode\GHealthProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
   <si>
     <t>Bolous</t>
   </si>
@@ -189,36 +190,54 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>remove cancel from MedicalRecord</t>
+  </si>
+  <si>
+    <t>remove end date from new treatment</t>
+  </si>
+  <si>
+    <t>remove cancel from visit or rename to close</t>
+  </si>
+  <si>
+    <t>submit treatment (close treatment)</t>
+  </si>
+  <si>
+    <t>disable buttons if treatment is closed</t>
+  </si>
+  <si>
+    <t>doctor -&gt; appointments opens wrogn window</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -249,12 +268,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,23 +592,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:D35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1"/>
-    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="1"/>
+    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -601,7 +622,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
@@ -609,7 +630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,35 +647,35 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,40 +706,40 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J13" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
@@ -726,14 +747,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -749,40 +770,40 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J18" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
@@ -790,14 +811,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -810,7 +831,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
@@ -821,7 +842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
@@ -832,12 +853,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J23" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J24" s="1" t="s">
         <v>49</v>
       </c>
@@ -845,7 +866,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J25" s="1" t="s">
         <v>48</v>
       </c>
@@ -853,7 +874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J26" s="1" t="s">
         <v>50</v>
       </c>
@@ -861,7 +882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
@@ -878,29 +899,29 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>23</v>
       </c>
@@ -911,7 +932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
@@ -922,7 +943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
@@ -933,7 +954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>23</v>
       </c>
@@ -944,7 +965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048576" s="1" t="s">
         <v>10</v>
       </c>
@@ -953,4 +974,195 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GHealthProject/Progress.xlsx
+++ b/GHealthProject/Progress.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>Bolous</t>
   </si>
@@ -207,7 +207,31 @@
     <t>disable buttons if treatment is closed</t>
   </si>
   <si>
-    <t>doctor -&gt; appointments opens wrogn window</t>
+    <t>revise client UI, and routings</t>
+  </si>
+  <si>
+    <t>revise data filler</t>
+  </si>
+  <si>
+    <t>view cancelations in CEO report</t>
+  </si>
+  <si>
+    <t>Maisam + Muhammad</t>
+  </si>
+  <si>
+    <t>Medical record opening</t>
+  </si>
+  <si>
+    <t>JavaDoc Utils, Server, Config,DataBase</t>
+  </si>
+  <si>
+    <t>Test Application</t>
+  </si>
+  <si>
+    <t>Ahdab + Muhammad</t>
+  </si>
+  <si>
+    <t>Test Jars on computers</t>
   </si>
 </sst>
 </file>
@@ -275,7 +299,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,7 +1005,7 @@
   <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,13 +1067,13 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -1063,8 +1087,12 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
     </row>
@@ -1075,54 +1103,50 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="1"/>
     </row>
@@ -1133,14 +1157,22 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>

--- a/GHealthProject/Progress.xlsx
+++ b/GHealthProject/Progress.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aj_pa\Repositories\labratoryCode\GHealthProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abu Nawaf\labratoryCode\GHealthProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
   <si>
     <t>Bolous</t>
   </si>
@@ -232,13 +232,67 @@
   </si>
   <si>
     <t>Test Jars on computers</t>
+  </si>
+  <si>
+    <t>ClientUI</t>
+  </si>
+  <si>
+    <t>RequestInformationUI</t>
+  </si>
+  <si>
+    <t>Userscontroller</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>UITest</t>
+  </si>
+  <si>
+    <t>Entities&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Referral</t>
+  </si>
+  <si>
+    <t>VIEW&lt;&lt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>doctor (1)</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Muhmad</t>
+  </si>
+  <si>
+    <t>ghealth.Utils</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>DoctorCOmprator</t>
+  </si>
+  <si>
+    <t>Request</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +319,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -300,6 +368,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -318,7 +389,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1002,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,9 +1084,13 @@
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1025,15 +1100,17 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -1043,8 +1120,14 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -1054,8 +1137,14 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1065,8 +1154,14 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1075,8 +1170,14 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1085,8 +1186,14 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>63</v>
       </c>
@@ -1096,22 +1203,44 @@
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -1119,8 +1248,14 @@
         <v>65</v>
       </c>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>0</v>
       </c>
@@ -1129,8 +1264,14 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>0</v>
       </c>
@@ -1139,8 +1280,14 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
         <v>0</v>
       </c>
@@ -1149,14 +1296,20 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1165,8 +1318,12 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>67</v>
       </c>
@@ -1175,26 +1332,64 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
+      <c r="G23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GHealthProject/Progress.xlsx
+++ b/GHealthProject/Progress.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
   <si>
     <t>Bolous</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checks valid fields </t>
   </si>
 </sst>
 </file>
@@ -1075,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1297,9 @@
       <c r="D17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="7" t="s">
         <v>81</v>

--- a/GHealthProject/Progress.xlsx
+++ b/GHealthProject/Progress.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abu Nawaf\labratoryCode\GHealthProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\labratoryCode\GHealthProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
   <si>
     <t>Bolous</t>
   </si>
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1076,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1093,7 @@
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1113,7 +1113,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -1130,7 +1130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -1147,7 +1147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>63</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="G11" s="7" t="s">
         <v>46</v>
@@ -1224,8 +1224,11 @@
       <c r="H11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
       <c r="G12" s="7" t="s">
         <v>75</v>
@@ -1234,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="G13" s="7" t="s">
         <v>76</v>
@@ -1243,7 +1246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>0</v>
       </c>
@@ -1273,8 +1276,11 @@
       <c r="H15" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>0</v>
       </c>
@@ -1288,6 +1294,9 @@
       </c>
       <c r="H16" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">

--- a/GHealthProject/Progress.xlsx
+++ b/GHealthProject/Progress.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="89">
   <si>
     <t>Bolous</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t xml:space="preserve">checks valid fields </t>
+  </si>
+  <si>
+    <t>LaboratoryUI</t>
   </si>
 </sst>
 </file>
@@ -331,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +353,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -363,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -374,6 +383,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="G9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,8 +1138,8 @@
       <c r="G4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>10</v>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1140,10 +1152,10 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1173,10 +1185,10 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1205,6 +1217,12 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
+      <c r="G9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
@@ -1236,10 +1254,10 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1301,10 +1319,10 @@
         <v>87</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1337,10 +1355,10 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" t="s">
+      <c r="G20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1352,6 +1370,9 @@
       <c r="G21" t="s">
         <v>50</v>
       </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
